--- a/PDR430.xlsx
+++ b/PDR430.xlsx
@@ -134,6 +134,661 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +1088,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -557,12 +1212,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="2" ht="68" customHeight="1">
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>18807</v>
       </c>
@@ -655,12 +1306,8 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="4" ht="68" customHeight="1">
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
         <v>18807</v>
       </c>
@@ -704,12 +1351,8 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="5" ht="68" customHeight="1">
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>18807</v>
       </c>
@@ -753,12 +1396,8 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="6" ht="68" customHeight="1">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>18807</v>
       </c>
@@ -802,12 +1441,8 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="7" ht="68" customHeight="1">
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>18807</v>
       </c>
@@ -851,12 +1486,8 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="8" ht="68" customHeight="1">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>18807</v>
       </c>
@@ -900,12 +1531,8 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="9" ht="68" customHeight="1">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
         <v>18807</v>
       </c>
@@ -949,12 +1576,8 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="10" ht="68" customHeight="1">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>18807</v>
       </c>
@@ -998,12 +1621,8 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="11" ht="68" customHeight="1">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>18807</v>
       </c>
@@ -1047,12 +1666,8 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="12" ht="68" customHeight="1">
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>18807</v>
       </c>
@@ -1096,12 +1711,8 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="13" ht="68" customHeight="1">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
         <v>18807</v>
       </c>
@@ -1145,12 +1756,8 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="14" ht="68" customHeight="1">
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>18807</v>
       </c>
@@ -1194,12 +1801,8 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="15" ht="68" customHeight="1">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
         <v>18807</v>
       </c>
@@ -1243,12 +1846,8 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="16" ht="68" customHeight="1">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
         <v>18807</v>
       </c>
@@ -1292,12 +1891,8 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="17" ht="68" customHeight="1">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
         <v>18807</v>
       </c>
@@ -1341,12 +1936,8 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="18" ht="68" customHeight="1">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
         <v>18807</v>
       </c>
@@ -1390,12 +1981,8 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="19" ht="68" customHeight="1">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
         <v>18807</v>
       </c>
@@ -1439,12 +2026,8 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="20" ht="68" customHeight="1">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
         <v>18807</v>
       </c>
@@ -1488,12 +2071,8 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="21" ht="68" customHeight="1">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>18807</v>
       </c>
@@ -1537,12 +2116,8 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="22" ht="68" customHeight="1">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>18807</v>
       </c>
@@ -1586,12 +2161,8 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="23" ht="68" customHeight="1">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>18807</v>
       </c>
@@ -1635,12 +2206,8 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="24" ht="68" customHeight="1">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>18807</v>
       </c>
@@ -1684,12 +2251,8 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="25" ht="68" customHeight="1">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
         <v>18807</v>
       </c>
@@ -1733,12 +2296,8 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="26" ht="68" customHeight="1">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>18807</v>
       </c>
@@ -1782,12 +2341,8 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="27" ht="68" customHeight="1">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>18807</v>
       </c>
@@ -1831,12 +2386,8 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">./IMAGENS/0131290.BMP                        </t>
-        </is>
-      </c>
+    <row r="28" ht="68" customHeight="1">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>18807</v>
       </c>
@@ -1882,5 +2433,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>